--- a/Zeszyt1.xlsx
+++ b/Zeszyt1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gurgs\OneDrive\Pulpit\Repos\p.electric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFF0922-93A9-4B74-9FF7-64B0FFF91764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C444A0E-B52B-479C-9451-349802E937C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" activeTab="1" xr2:uid="{774B6CA4-C04E-4184-B5F3-C7F23C7A490F}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12480" xr2:uid="{774B6CA4-C04E-4184-B5F3-C7F23C7A490F}"/>
   </bookViews>
   <sheets>
     <sheet name="realiacje" sheetId="1" r:id="rId1"/>
@@ -280,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -292,7 +292,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -759,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B70C4A-AB8C-4CED-A41D-A02FC6FAB86E}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680F2E8A-0ED6-4291-9E79-E9C775EC6F13}">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1038,13 +1037,13 @@
         <f>_xlfn.CONCAT(Tabela3[[#This Row],[Lib]],Tabela3[[#This Row],[IconName]])</f>
         <v>GiCircuitry</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="5" t="str">
+      <c r="H9" t="str">
         <f>_xlfn.CONCAT(Tabela3[[#This Row],[Lib]],Tabela3[[#This Row],[IconName]])</f>
         <v>GiCircuitry</v>
       </c>
